--- a/data/trans_orig/P14C28-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA956BE-02CC-40C3-918A-55A78D856F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E85D1B0-72CC-4807-9FFE-7B6927D9A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D952FA2B-6CE1-4A30-BA8F-0A0EBB614347}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{236B0508-2E5E-4672-921D-C228F515E3B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="222">
   <si>
     <t>Población según el tiempo de diagnóstico del artritis en 2015 (Tasa respuesta: 6,06%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>78,82%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>39,86%</t>
+    <t>45,66%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>19,32%</t>
+    <t>18,69%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,22 +131,22 @@
     <t>6,27%</t>
   </si>
   <si>
-    <t>26,92%</t>
+    <t>26,55%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>32,83%</t>
+    <t>35,53%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,544 +158,547 @@
     <t>63,99%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>36,01%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1110,7 +1113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB04825-5525-4248-915F-0F11572812B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B8CD19-9879-4FBE-872A-9D756322A408}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2536,13 +2539,13 @@
         <v>7858</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2551,13 +2554,13 @@
         <v>15296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,10 +2575,10 @@
         <v>3005</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>161</v>
@@ -2963,13 +2966,13 @@
         <v>86455</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2987,13 @@
         <v>4942</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -2999,13 +3002,13 @@
         <v>15420</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -3014,13 +3017,13 @@
         <v>20363</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3079,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C28-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E85D1B0-72CC-4807-9FFE-7B6927D9A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7739055-B624-4D2F-9009-137B4506AE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{236B0508-2E5E-4672-921D-C228F515E3B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{053D75E2-D74C-42C3-9EE4-6BBFE737D091}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="222">
-  <si>
-    <t>Población según el tiempo de diagnóstico del artritis en 2015 (Tasa respuesta: 6,06%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="221">
+  <si>
+    <t>Población según el tiempo de diagnóstico del artritis en 2016 (Tasa respuesta: 6,06%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>78,82%</t>
   </si>
   <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,66%</t>
+    <t>44,13%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>18,69%</t>
+    <t>27,88%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,22 +131,22 @@
     <t>6,27%</t>
   </si>
   <si>
-    <t>26,55%</t>
+    <t>26,52%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>35,53%</t>
+    <t>33,68%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,55 +158,55 @@
     <t>63,99%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>36,01%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>0%</t>
@@ -218,13 +218,13 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>11,87%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -233,55 +233,55 @@
     <t>64,83%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>35,17%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -299,7 +299,7 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>69,55%</t>
+    <t>69,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -308,7 +308,7 @@
     <t>91,23%</t>
   </si>
   <si>
-    <t>81,11%</t>
+    <t>79,76%</t>
   </si>
   <si>
     <t>97,77%</t>
@@ -317,16 +317,16 @@
     <t>91,66%</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>30,45%</t>
+    <t>30,85%</t>
   </si>
   <si>
     <t>8,77%</t>
@@ -335,16 +335,16 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>18,89%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -362,13 +362,13 @@
     <t>91,25%</t>
   </si>
   <si>
-    <t>73,06%</t>
+    <t>68,62%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>78,02%</t>
+    <t>77,02%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -377,13 +377,13 @@
     <t>8,75%</t>
   </si>
   <si>
-    <t>26,94%</t>
+    <t>31,38%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>21,98%</t>
+    <t>22,98%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -398,67 +398,64 @@
     <t>81,96%</t>
   </si>
   <si>
-    <t>51,35%</t>
+    <t>47,34%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>63,9%</t>
   </si>
   <si>
     <t>81,49%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>41,56%</t>
+    <t>46,61%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>34,27%</t>
+    <t>32,98%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>11,1%</t>
+    <t>13,7%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>12,27%</t>
+    <t>13,82%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -467,61 +464,64 @@
     <t>49,89%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>71,35%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>35,69%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>34,2%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>12,29%</t>
@@ -530,16 +530,16 @@
     <t>4,8%</t>
   </si>
   <si>
-    <t>26,05%</t>
+    <t>24,45%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -548,55 +548,52 @@
     <t>67,22%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>60,61%</t>
   </si>
   <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>34,57%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
+    <t>47,8%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -605,100 +602,100 @@
     <t>6,79%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1113,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B8CD19-9879-4FBE-872A-9D756322A408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC815C73-82A4-4274-AEAD-914F9F74E661}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2288,7 +2285,7 @@
         <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -2297,13 +2294,13 @@
         <v>38336</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2315,13 @@
         <v>1149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2333,13 +2330,13 @@
         <v>5718</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2348,13 +2345,13 @@
         <v>6867</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2366,13 @@
         <v>901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2384,13 +2381,13 @@
         <v>939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2399,13 +2396,13 @@
         <v>1840</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2458,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2473,13 +2470,13 @@
         <v>10396</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -2488,13 +2485,13 @@
         <v>34266</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -2503,13 +2500,13 @@
         <v>44663</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2521,13 @@
         <v>7438</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2539,13 +2536,13 @@
         <v>7858</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2554,13 +2551,13 @@
         <v>15296</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,10 +2572,10 @@
         <v>3005</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>161</v>
@@ -2748,10 +2745,10 @@
         <v>181</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M33" s="7">
         <v>27</v>
@@ -2760,13 +2757,13 @@
         <v>30763</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2784,7 @@
         <v>57</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2796,13 +2793,13 @@
         <v>4706</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -2811,13 +2808,13 @@
         <v>4706</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2882,13 @@
         <v>83044</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H36" s="7">
         <v>218</v>
@@ -2900,13 +2897,13 @@
         <v>248788</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>300</v>
@@ -2915,13 +2912,13 @@
         <v>331833</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2933,13 @@
         <v>28059</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -2951,13 +2948,13 @@
         <v>58395</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
@@ -2966,13 +2963,13 @@
         <v>86455</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2984,13 @@
         <v>4942</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -3002,13 +2999,13 @@
         <v>15420</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -3017,13 +3014,13 @@
         <v>20363</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,7 +3076,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
